--- a/biology/Botanique/Hydrocotyle/Hydrocotyle.xlsx
+++ b/biology/Botanique/Hydrocotyle/Hydrocotyle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hydrocotyles (Hydrocotyle) forment un genre de plantes aquatiques ou semi-aquatiques autrefois classées parmi les Apiaceae et maintenant dans la famille des Araliaceae[3]. Dans leur aire naturelle de répartition, les hydrocotyles sont des plantes très communes [4],[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hydrocotyles (Hydrocotyle) forment un genre de plantes aquatiques ou semi-aquatiques autrefois classées parmi les Apiaceae et maintenant dans la famille des Araliaceae. Dans leur aire naturelle de répartition, les hydrocotyles sont des plantes très communes .
 Certaines espèces introduites hors de leur aire naturelle de répartition sont considérées comme localement invasives ; c'est le cas de l'hydrocotyle fausse-renoncule (Hydrocotyle ranunculoides), introduite d'Amérique du Nord en Europe occidentale, qui est en train de coloniser de manière très dense certaines portions de cours d'eau.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hydrocotyles vivent en zone tropicale ou tempérée (selon les espèces)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hydrocotyles vivent en zone tropicale ou tempérée (selon les espèces).
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles se développent sur de longues tiges garnies de racines flottantes ou pouvant s’ancrer aux pieds d’une berge, sur un îlot…  Leur taille ainsi que la longueur de l'inter-nœuds, varie selon la profondeur et le gradient la luminosité[7].
-Là où elle devient invasive, cette plante peut ainsi former d’épais tapis semi-flottant, bloquant la circulation des embarcations ou gênant la pêche, y compris dans les cours d’eau à courant très lents (anciens canaux par exemple), les mares et les lacs ou marais[5]. Quelques espèces sont adaptées aux milieux sub-littoraux[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles se développent sur de longues tiges garnies de racines flottantes ou pouvant s’ancrer aux pieds d’une berge, sur un îlot…  Leur taille ainsi que la longueur de l'inter-nœuds, varie selon la profondeur et le gradient la luminosité.
+Là où elle devient invasive, cette plante peut ainsi former d’épais tapis semi-flottant, bloquant la circulation des embarcations ou gênant la pêche, y compris dans les cours d’eau à courant très lents (anciens canaux par exemple), les mares et les lacs ou marais. Quelques espèces sont adaptées aux milieux sub-littoraux,.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Feuilles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Simples, arrondies et à bords festonnés.
 De petites feuilles rondes ou en forme de rein les accompagnent.
@@ -607,7 +625,9 @@
           <t>Fleurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En grappes, les fleurs sont simples et à sommet plat ou arrondi, à sépales indistinctes
 </t>
@@ -638,10 +658,12 @@
           <t>Fruits et reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits sont elliptiques à ronds avec des crêtes minces[4].
-La plante se reproduit par graine ou par croissance à partir des nœuds de tiges fragmentées[10]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont elliptiques à ronds avec des crêtes minces.
+La plante se reproduit par graine ou par croissance à partir des nœuds de tiges fragmentées
 </t>
         </is>
       </c>
@@ -670,10 +692,12 @@
           <t>Exemple d'espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hydrocotyle a compté de 75 à 100 espèces[11],[4]
-Quelques espèces ont fait l'objet de cultures pour l'aquariophilie ou comme plantes ornementales de bassins[12]. Liste d'espèces sélectionnées[1],[2],[3],[11],[13],[14],[15]:
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hydrocotyle a compté de 75 à 100 espèces,
+Quelques espèces ont fait l'objet de cultures pour l'aquariophilie ou comme plantes ornementales de bassins. Liste d'espèces sélectionnées:
 Hydrocotyle abbreviata (ceb)
 Hydrocotyle abyssinica (sv)
 Hydrocotyle aconitifolia (ceb)
